--- a/StockReport_3.xlsx
+++ b/StockReport_3.xlsx
@@ -44,7 +44,7 @@
     <t>Quantité:</t>
   </si>
   <si>
-    <t>90</t>
+    <t>100</t>
   </si>
   <si>
     <t>Nombre vendus:</t>
@@ -56,7 +56,7 @@
     <t>Cout total:</t>
   </si>
   <si>
-    <t>1404.0</t>
+    <t>1560.0</t>
   </si>
 </sst>
 </file>
